--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1486897.165846145</v>
+        <v>1432870.478126194</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4356860.590084115</v>
+        <v>4356860.590084111</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11460762.92314624</v>
+        <v>11460762.92314623</v>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.8377937190847</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>90.40311736807173</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>58.56532364898706</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>56.14127127247613</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>66.34128616323832</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>8.854039860480512</v>
       </c>
       <c r="S24" t="n">
-        <v>80.3793768116752</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>42.61591035185226</v>
       </c>
       <c r="X24" t="n">
-        <v>83.92809665662385</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
     </row>
     <row r="25">
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>57.31167872604973</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>54.11725373076862</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.055385824510154</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>85.98959708500686</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="T25" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
       <c r="W25" t="n">
-        <v>4.413520283064897</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>79.55630745194732</v>
       </c>
     </row>
     <row r="26">
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>90.40311736807173</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>102.6375083652041</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>90.40311736807172</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>98.19459998606825</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>62.98497865792596</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>40.14616727284457</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50.90736857407263</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>94.35238818164117</v>
       </c>
       <c r="U27" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>39.49574879399913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>44.10871453810227</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>36.91157767312388</v>
       </c>
       <c r="R28" t="n">
-        <v>53.49153969494781</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="T28" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="U28" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>9.382825156845557</v>
       </c>
     </row>
     <row r="29">
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>100.6186523625792</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>92.42197337069661</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>90.40311736807178</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
     </row>
     <row r="30">
@@ -2885,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>88.09305158464014</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2.310065783431589</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.90736857407263</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>39.49574879399912</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X30" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2994,31 +2994,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>36.91157767312388</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="S31" t="n">
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="T31" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="U31" t="n">
-        <v>53.49153969494787</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>90.40311736807173</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>56.50993782447691</v>
       </c>
       <c r="S32" t="n">
+        <v>33.89317954359483</v>
+      </c>
+      <c r="T32" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="W32" t="n">
         <v>102.6375083652041</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>33.89317954359486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C33" t="n">
-        <v>5.28047234493637</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>30.56023993299495</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3158,16 +3158,16 @@
         <v>6.798654035970358</v>
       </c>
       <c r="S33" t="n">
-        <v>78.32399098716505</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S34" t="n">
         <v>102.6375083652041</v>
@@ -3243,7 +3243,7 @@
         <v>102.6375083652041</v>
       </c>
       <c r="U34" t="n">
-        <v>90.40311736807172</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>102.6375083652041</v>
+        <v>34.47461523099312</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>90.40311736807172</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,55 +3277,55 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>56.50993782447691</v>
+      </c>
+      <c r="S35" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U35" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>33.89317954359479</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>40.51730332843827</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>78.32399098716505</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="U36" t="n">
+      <c r="Y36" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="V36" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="W36" t="n">
-        <v>5.28047234493637</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>6.468906107575016</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>102.6375083652041</v>
       </c>
       <c r="T37" t="n">
-        <v>6.468906107575012</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="V37" t="n">
+      <c r="Y37" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>90.40311736807173</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>33.89317954359487</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>56.50993782447691</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V38" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>78.32399098716505</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>12.07912638090668</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>78.86891135491423</v>
+      </c>
+      <c r="X39" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
       <c r="Y39" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>83.93421126049671</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="T40" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="U40" t="n">
-        <v>6.468906107575012</v>
-      </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>44.59142529432211</v>
       </c>
       <c r="W40" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3754,14 +3754,14 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>90.40311736807172</v>
-      </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>100.6186523625792</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>92.42197337069669</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>62.98497865792596</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>50.90736857407263</v>
       </c>
       <c r="S42" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3878,10 +3878,10 @@
         <v>102.6375083652041</v>
       </c>
       <c r="V42" t="n">
-        <v>90.40311736807172</v>
+        <v>79.14827850127723</v>
       </c>
       <c r="W42" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>97.18349706799867</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>96.17058244436075</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3942,22 +3942,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.9115776731239</v>
+        <v>36.91157767312389</v>
       </c>
       <c r="R43" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>53.49153969494787</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>102.6375083652041</v>
+        <v>65.4124769129966</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.40311736807173</v>
+      </c>
+      <c r="F44" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>90.40311736807172</v>
-      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
       <c r="D45" t="n">
-        <v>98.19459998606825</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4103,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>50.90736857407263</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V45" t="n">
-        <v>94.84602574720756</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>102.6375083652041</v>
+        <v>39.49574879399911</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,67 +4143,67 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>96.87004328891507</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>96.17058244436075</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="H46" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>44.10871453810228</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>46.29440282996949</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.211000669216327</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="C23" t="n">
-        <v>8.211000669216327</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="D23" t="n">
-        <v>8.211000669216327</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="E23" t="n">
-        <v>8.211000669216327</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="F23" t="n">
-        <v>8.211000669216327</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="G23" t="n">
-        <v>8.211000669216327</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="H23" t="n">
-        <v>8.211000669216327</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="I23" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J23" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K23" t="n">
-        <v>109.8221339507684</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="L23" t="n">
-        <v>109.8221339507684</v>
+        <v>105.7166336161603</v>
       </c>
       <c r="M23" t="n">
-        <v>211.4332672323204</v>
+        <v>207.3277668977123</v>
       </c>
       <c r="N23" t="n">
-        <v>313.0444005138725</v>
+        <v>308.9389001792644</v>
       </c>
       <c r="O23" t="n">
-        <v>320.8899781687654</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="P23" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q23" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R23" t="n">
-        <v>351.3931408860819</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="S23" t="n">
-        <v>247.7188900121384</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="T23" t="n">
-        <v>247.7188900121384</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="U23" t="n">
-        <v>144.0446391381949</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="V23" t="n">
-        <v>40.37038826425137</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="W23" t="n">
-        <v>40.37038826425137</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="X23" t="n">
-        <v>40.37038826425137</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Y23" t="n">
-        <v>40.37038826425137</v>
+        <v>410.5500334608164</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>64.91935548989929</v>
+        <v>75.22240083410352</v>
       </c>
       <c r="C24" t="n">
-        <v>64.91935548989929</v>
+        <v>75.22240083410352</v>
       </c>
       <c r="D24" t="n">
-        <v>8.211000669216327</v>
+        <v>75.22240083410352</v>
       </c>
       <c r="E24" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="F24" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="G24" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H24" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I24" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J24" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K24" t="n">
-        <v>36.32207510283092</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L24" t="n">
-        <v>36.32207510283092</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M24" t="n">
-        <v>36.32207510283092</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="N24" t="n">
-        <v>137.933208384383</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="O24" t="n">
-        <v>239.544341665935</v>
+        <v>313.0444005138725</v>
       </c>
       <c r="P24" t="n">
         <v>341.1554749474871</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R24" t="n">
-        <v>410.5500334608163</v>
+        <v>401.6065588542704</v>
       </c>
       <c r="S24" t="n">
-        <v>329.3587437520535</v>
+        <v>401.6065588542704</v>
       </c>
       <c r="T24" t="n">
-        <v>225.68449287811</v>
+        <v>401.6065588542704</v>
       </c>
       <c r="U24" t="n">
-        <v>225.68449287811</v>
+        <v>401.6065588542704</v>
       </c>
       <c r="V24" t="n">
-        <v>225.68449287811</v>
+        <v>297.9323079803269</v>
       </c>
       <c r="W24" t="n">
-        <v>225.68449287811</v>
+        <v>254.8859338875468</v>
       </c>
       <c r="X24" t="n">
-        <v>140.908637669399</v>
+        <v>254.8859338875468</v>
       </c>
       <c r="Y24" t="n">
-        <v>140.908637669399</v>
+        <v>151.2116830136032</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.211000669216327</v>
+        <v>122.8416251958108</v>
       </c>
       <c r="C25" t="n">
-        <v>8.211000669216327</v>
+        <v>122.8416251958108</v>
       </c>
       <c r="D25" t="n">
-        <v>8.211000669216327</v>
+        <v>64.95104062404337</v>
       </c>
       <c r="E25" t="n">
-        <v>8.211000669216327</v>
+        <v>64.95104062404337</v>
       </c>
       <c r="F25" t="n">
-        <v>8.211000669216327</v>
+        <v>10.28714796670133</v>
       </c>
       <c r="G25" t="n">
-        <v>8.211000669216327</v>
+        <v>10.28714796670133</v>
       </c>
       <c r="H25" t="n">
-        <v>8.211000669216327</v>
+        <v>10.28714796670133</v>
       </c>
       <c r="I25" t="n">
-        <v>8.211000669216327</v>
+        <v>10.28714796670133</v>
       </c>
       <c r="J25" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K25" t="n">
         <v>76.55496011083331</v>
       </c>
       <c r="L25" t="n">
-        <v>178.1660933923853</v>
+        <v>133.2731477800568</v>
       </c>
       <c r="M25" t="n">
-        <v>279.7772266739374</v>
+        <v>172.4611859722789</v>
       </c>
       <c r="N25" t="n">
-        <v>323.4680773293737</v>
+        <v>216.1520366277152</v>
       </c>
       <c r="O25" t="n">
-        <v>405.4596999307528</v>
+        <v>317.7631699092673</v>
       </c>
       <c r="P25" t="n">
         <v>405.4596999307528</v>
       </c>
       <c r="Q25" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R25" t="n">
-        <v>323.691854587072</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="S25" t="n">
-        <v>220.0176037131285</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="T25" t="n">
-        <v>116.343352839185</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="U25" t="n">
-        <v>116.343352839185</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="V25" t="n">
-        <v>116.343352839185</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="W25" t="n">
-        <v>111.8852515431599</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="X25" t="n">
-        <v>8.211000669216327</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.211000669216327</v>
+        <v>122.8416251958108</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.211000669216327</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="C26" t="n">
-        <v>8.211000669216327</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="D26" t="n">
-        <v>8.211000669216327</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="E26" t="n">
-        <v>8.211000669216327</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="F26" t="n">
-        <v>8.211000669216327</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="G26" t="n">
-        <v>8.211000669216327</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="H26" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I26" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J26" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K26" t="n">
-        <v>8.211000669216327</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L26" t="n">
-        <v>109.8221339507684</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M26" t="n">
-        <v>117.6677116056613</v>
+        <v>313.0444005138725</v>
       </c>
       <c r="N26" t="n">
-        <v>219.2788448872133</v>
+        <v>313.0444005138725</v>
       </c>
       <c r="O26" t="n">
         <v>320.8899781687654</v>
       </c>
       <c r="P26" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q26" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R26" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="S26" t="n">
+        <v>410.5500334608164</v>
+      </c>
+      <c r="T26" t="n">
         <v>306.8757825868728</v>
       </c>
-      <c r="T26" t="n">
-        <v>203.2015317129293</v>
-      </c>
       <c r="U26" t="n">
-        <v>203.2015317129293</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V26" t="n">
-        <v>203.2015317129293</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="W26" t="n">
-        <v>111.8852515431599</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="X26" t="n">
-        <v>111.8852515431599</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.211000669216327</v>
+        <v>306.8757825868728</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8.211000669216327</v>
+        <v>315.244590853098</v>
       </c>
       <c r="C27" t="n">
-        <v>8.211000669216327</v>
+        <v>315.244590853098</v>
       </c>
       <c r="D27" t="n">
-        <v>8.211000669216327</v>
+        <v>216.0581262207058</v>
       </c>
       <c r="E27" t="n">
-        <v>8.211000669216327</v>
+        <v>112.3838753467623</v>
       </c>
       <c r="F27" t="n">
-        <v>8.211000669216327</v>
+        <v>112.3838753467623</v>
       </c>
       <c r="G27" t="n">
-        <v>8.211000669216327</v>
+        <v>112.3838753467623</v>
       </c>
       <c r="H27" t="n">
-        <v>8.211000669216327</v>
+        <v>48.76268478320075</v>
       </c>
       <c r="I27" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J27" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K27" t="n">
-        <v>8.211000669216327</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L27" t="n">
-        <v>109.8221339507684</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M27" t="n">
-        <v>137.933208384383</v>
+        <v>239.5443416659351</v>
       </c>
       <c r="N27" t="n">
-        <v>239.544341665935</v>
+        <v>239.5443416659351</v>
       </c>
       <c r="O27" t="n">
-        <v>239.544341665935</v>
+        <v>239.5443416659351</v>
       </c>
       <c r="P27" t="n">
         <v>341.1554749474871</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R27" t="n">
-        <v>359.1284490425612</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="S27" t="n">
-        <v>255.4541981686176</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="T27" t="n">
-        <v>255.4541981686176</v>
+        <v>315.244590853098</v>
       </c>
       <c r="U27" t="n">
-        <v>151.7799472946741</v>
+        <v>315.244590853098</v>
       </c>
       <c r="V27" t="n">
-        <v>151.7799472946741</v>
+        <v>315.244590853098</v>
       </c>
       <c r="W27" t="n">
-        <v>48.1056964207306</v>
+        <v>315.244590853098</v>
       </c>
       <c r="X27" t="n">
-        <v>48.1056964207306</v>
+        <v>315.244590853098</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.211000669216327</v>
+        <v>315.244590853098</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.211000669216327</v>
+        <v>156.4395086523541</v>
       </c>
       <c r="C28" t="n">
-        <v>8.211000669216327</v>
+        <v>156.4395086523541</v>
       </c>
       <c r="D28" t="n">
-        <v>8.211000669216327</v>
+        <v>156.4395086523541</v>
       </c>
       <c r="E28" t="n">
-        <v>8.211000669216327</v>
+        <v>156.4395086523541</v>
       </c>
       <c r="F28" t="n">
-        <v>8.211000669216327</v>
+        <v>156.4395086523541</v>
       </c>
       <c r="G28" t="n">
-        <v>8.211000669216327</v>
+        <v>52.76525777841054</v>
       </c>
       <c r="H28" t="n">
-        <v>8.211000669216327</v>
+        <v>52.76525777841054</v>
       </c>
       <c r="I28" t="n">
-        <v>8.211000669216327</v>
+        <v>52.76525777841054</v>
       </c>
       <c r="J28" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K28" t="n">
-        <v>34.92216468437709</v>
+        <v>34.92216468437711</v>
       </c>
       <c r="L28" t="n">
         <v>110.9942506148749</v>
       </c>
       <c r="M28" t="n">
-        <v>198.9402497298818</v>
+        <v>198.9402497298819</v>
       </c>
       <c r="N28" t="n">
-        <v>291.3890613081029</v>
+        <v>291.389061308103</v>
       </c>
       <c r="O28" t="n">
         <v>364.486298865787</v>
       </c>
       <c r="P28" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q28" t="n">
         <v>373.265611568772</v>
       </c>
       <c r="R28" t="n">
-        <v>319.2337532910469</v>
+        <v>269.5913606948285</v>
       </c>
       <c r="S28" t="n">
-        <v>215.5595024171034</v>
+        <v>269.5913606948285</v>
       </c>
       <c r="T28" t="n">
-        <v>111.8852515431599</v>
+        <v>269.5913606948285</v>
       </c>
       <c r="U28" t="n">
-        <v>8.211000669216327</v>
+        <v>269.5913606948285</v>
       </c>
       <c r="V28" t="n">
-        <v>8.211000669216327</v>
+        <v>269.5913606948285</v>
       </c>
       <c r="W28" t="n">
-        <v>8.211000669216327</v>
+        <v>269.5913606948285</v>
       </c>
       <c r="X28" t="n">
-        <v>8.211000669216327</v>
+        <v>165.9171098208849</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.211000669216327</v>
+        <v>156.4395086523541</v>
       </c>
     </row>
     <row r="29">
@@ -6451,61 +6451,61 @@
         <v>111.8852515431599</v>
       </c>
       <c r="F29" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="G29" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H29" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I29" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J29" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K29" t="n">
-        <v>8.211000669216327</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L29" t="n">
-        <v>109.8221339507684</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M29" t="n">
-        <v>211.4332672323204</v>
+        <v>313.0444005138725</v>
       </c>
       <c r="N29" t="n">
-        <v>219.2788448872133</v>
+        <v>320.8899781687654</v>
       </c>
       <c r="O29" t="n">
         <v>320.8899781687654</v>
       </c>
       <c r="P29" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q29" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R29" t="n">
-        <v>308.9150310743727</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="S29" t="n">
-        <v>308.9150310743727</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="T29" t="n">
-        <v>308.9150310743727</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="U29" t="n">
-        <v>308.9150310743727</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="V29" t="n">
-        <v>308.9150310743727</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="W29" t="n">
-        <v>215.5595024171034</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="X29" t="n">
-        <v>215.5595024171034</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="Y29" t="n">
         <v>215.5595024171034</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8.211000669216327</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="C30" t="n">
-        <v>8.211000669216327</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="D30" t="n">
-        <v>8.211000669216327</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="E30" t="n">
-        <v>8.211000669216327</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="F30" t="n">
-        <v>8.211000669216327</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="G30" t="n">
-        <v>8.211000669216327</v>
+        <v>10.54440045046036</v>
       </c>
       <c r="H30" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I30" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J30" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K30" t="n">
-        <v>8.211000669216327</v>
+        <v>36.32207510283096</v>
       </c>
       <c r="L30" t="n">
-        <v>8.211000669216327</v>
+        <v>137.933208384383</v>
       </c>
       <c r="M30" t="n">
-        <v>109.8221339507684</v>
+        <v>137.933208384383</v>
       </c>
       <c r="N30" t="n">
-        <v>211.4332672323204</v>
+        <v>239.5443416659351</v>
       </c>
       <c r="O30" t="n">
-        <v>239.544341665935</v>
+        <v>341.1554749474871</v>
       </c>
       <c r="P30" t="n">
         <v>341.1554749474871</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R30" t="n">
-        <v>359.1284490425612</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="S30" t="n">
-        <v>255.4541981686176</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="T30" t="n">
-        <v>215.5595024171034</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="U30" t="n">
-        <v>111.8852515431599</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V30" t="n">
-        <v>111.8852515431599</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="W30" t="n">
-        <v>111.8852515431599</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="X30" t="n">
-        <v>8.211000669216327</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.211000669216327</v>
+        <v>99.52728083898576</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="C31" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="D31" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="E31" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="F31" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="G31" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H31" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I31" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J31" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K31" t="n">
-        <v>34.92216468437707</v>
+        <v>34.92216468437711</v>
       </c>
       <c r="L31" t="n">
-        <v>110.9942506148748</v>
+        <v>110.9942506148749</v>
       </c>
       <c r="M31" t="n">
-        <v>198.9402497298818</v>
+        <v>198.9402497298819</v>
       </c>
       <c r="N31" t="n">
-        <v>291.3890613081029</v>
+        <v>291.389061308103</v>
       </c>
       <c r="O31" t="n">
         <v>364.486298865787</v>
       </c>
       <c r="P31" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q31" t="n">
-        <v>373.265611568772</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R31" t="n">
-        <v>269.5913606948285</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="S31" t="n">
-        <v>165.917109820885</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="T31" t="n">
-        <v>62.24285894694145</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="U31" t="n">
-        <v>8.211000669216327</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V31" t="n">
-        <v>8.211000669216327</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="W31" t="n">
-        <v>8.211000669216327</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="X31" t="n">
-        <v>8.211000669216327</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.211000669216327</v>
+        <v>111.8852515431599</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="C32" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="D32" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="E32" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="F32" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="G32" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H32" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I32" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J32" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K32" t="n">
-        <v>8.211000669216327</v>
+        <v>16.05657832410927</v>
       </c>
       <c r="L32" t="n">
-        <v>109.8221339507684</v>
+        <v>16.05657832410927</v>
       </c>
       <c r="M32" t="n">
         <v>117.6677116056613</v>
       </c>
       <c r="N32" t="n">
-        <v>219.2788448872133</v>
+        <v>219.2788448872134</v>
       </c>
       <c r="O32" t="n">
         <v>320.8899781687654</v>
       </c>
       <c r="P32" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q32" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R32" t="n">
         <v>353.469288183567</v>
       </c>
       <c r="S32" t="n">
-        <v>249.7950373096234</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="T32" t="n">
-        <v>249.7950373096234</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="U32" t="n">
-        <v>249.7950373096234</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="V32" t="n">
-        <v>249.7950373096234</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="W32" t="n">
-        <v>146.1207864356799</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="X32" t="n">
-        <v>146.1207864356799</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="Y32" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216329</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13.544811118647</v>
+        <v>226.0953203957972</v>
       </c>
       <c r="C33" t="n">
-        <v>8.211000669216327</v>
+        <v>145.9444932527234</v>
       </c>
       <c r="D33" t="n">
-        <v>8.211000669216327</v>
+        <v>91.31228572952548</v>
       </c>
       <c r="E33" t="n">
-        <v>8.211000669216327</v>
+        <v>91.31228572952548</v>
       </c>
       <c r="F33" t="n">
-        <v>8.211000669216327</v>
+        <v>39.07992989446376</v>
       </c>
       <c r="G33" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H33" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I33" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J33" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K33" t="n">
-        <v>36.32207510283092</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L33" t="n">
-        <v>36.32207510283092</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M33" t="n">
-        <v>137.933208384383</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="N33" t="n">
-        <v>239.544341665935</v>
+        <v>239.5443416659351</v>
       </c>
       <c r="O33" t="n">
-        <v>239.544341665935</v>
+        <v>341.1554749474871</v>
       </c>
       <c r="P33" t="n">
         <v>341.1554749474871</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R33" t="n">
         <v>403.6827061517554</v>
       </c>
       <c r="S33" t="n">
-        <v>324.5675637404776</v>
+        <v>403.6827061517554</v>
       </c>
       <c r="T33" t="n">
-        <v>220.893312866534</v>
+        <v>403.6827061517554</v>
       </c>
       <c r="U33" t="n">
-        <v>220.893312866534</v>
+        <v>403.6827061517554</v>
       </c>
       <c r="V33" t="n">
-        <v>117.2190619925905</v>
+        <v>403.6827061517554</v>
       </c>
       <c r="W33" t="n">
-        <v>117.2190619925905</v>
+        <v>403.6827061517554</v>
       </c>
       <c r="X33" t="n">
-        <v>117.2190619925905</v>
+        <v>403.6827061517554</v>
       </c>
       <c r="Y33" t="n">
-        <v>13.544811118647</v>
+        <v>300.0084552778119</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.211000669216327</v>
+        <v>83.59665646900017</v>
       </c>
       <c r="C34" t="n">
-        <v>8.211000669216327</v>
+        <v>83.59665646900017</v>
       </c>
       <c r="D34" t="n">
-        <v>8.211000669216327</v>
+        <v>83.59665646900017</v>
       </c>
       <c r="E34" t="n">
-        <v>8.211000669216327</v>
+        <v>83.59665646900017</v>
       </c>
       <c r="F34" t="n">
-        <v>8.211000669216327</v>
+        <v>83.59665646900017</v>
       </c>
       <c r="G34" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H34" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I34" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J34" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K34" t="n">
-        <v>8.211000669216327</v>
+        <v>78.58979207709835</v>
       </c>
       <c r="L34" t="n">
-        <v>109.8221339507684</v>
+        <v>144.0522454048496</v>
       </c>
       <c r="M34" t="n">
-        <v>149.0101721429905</v>
+        <v>245.6633786864016</v>
       </c>
       <c r="N34" t="n">
-        <v>250.6213054245426</v>
+        <v>289.3542293418379</v>
       </c>
       <c r="O34" t="n">
-        <v>320.8186714730657</v>
+        <v>313.6935059767372</v>
       </c>
       <c r="P34" t="n">
-        <v>410.5500334608163</v>
+        <v>403.4248679644878</v>
       </c>
       <c r="Q34" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R34" t="n">
-        <v>410.5500334608163</v>
+        <v>325.7680018845571</v>
       </c>
       <c r="S34" t="n">
-        <v>306.8757825868728</v>
+        <v>222.0937510106135</v>
       </c>
       <c r="T34" t="n">
-        <v>203.2015317129293</v>
+        <v>118.41950013667</v>
       </c>
       <c r="U34" t="n">
-        <v>111.8852515431599</v>
+        <v>118.41950013667</v>
       </c>
       <c r="V34" t="n">
-        <v>111.8852515431599</v>
+        <v>118.41950013667</v>
       </c>
       <c r="W34" t="n">
-        <v>111.8852515431599</v>
+        <v>118.41950013667</v>
       </c>
       <c r="X34" t="n">
-        <v>8.211000669216327</v>
+        <v>83.59665646900017</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.211000669216327</v>
+        <v>83.59665646900017</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="C35" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="D35" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="E35" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="F35" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="G35" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H35" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I35" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J35" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K35" t="n">
-        <v>16.05657832410924</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L35" t="n">
-        <v>117.6677116056613</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M35" t="n">
-        <v>219.2788448872133</v>
+        <v>313.0444005138725</v>
       </c>
       <c r="N35" t="n">
-        <v>219.2788448872133</v>
+        <v>320.8899781687654</v>
       </c>
       <c r="O35" t="n">
         <v>320.8899781687654</v>
       </c>
       <c r="P35" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q35" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R35" t="n">
-        <v>410.5500334608163</v>
+        <v>353.469288183567</v>
       </c>
       <c r="S35" t="n">
-        <v>410.5500334608163</v>
+        <v>249.7950373096234</v>
       </c>
       <c r="T35" t="n">
-        <v>410.5500334608163</v>
+        <v>146.1207864356799</v>
       </c>
       <c r="U35" t="n">
-        <v>306.8757825868728</v>
+        <v>42.44653556173633</v>
       </c>
       <c r="V35" t="n">
-        <v>306.8757825868728</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="W35" t="n">
-        <v>306.8757825868728</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="X35" t="n">
-        <v>306.8757825868728</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="Y35" t="n">
-        <v>203.2015317129293</v>
+        <v>8.211000669216329</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8.211000669216327</v>
+        <v>129.2883968309146</v>
       </c>
       <c r="C36" t="n">
-        <v>8.211000669216327</v>
+        <v>49.13756968784085</v>
       </c>
       <c r="D36" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="E36" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="F36" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="G36" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H36" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I36" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J36" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K36" t="n">
-        <v>8.211000669216327</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L36" t="n">
-        <v>36.32207510283092</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M36" t="n">
-        <v>36.32207510283092</v>
+        <v>313.0444005138725</v>
       </c>
       <c r="N36" t="n">
-        <v>137.933208384383</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="O36" t="n">
-        <v>239.544341665935</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="P36" t="n">
-        <v>341.1554749474871</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R36" t="n">
-        <v>403.6827061517554</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="S36" t="n">
-        <v>324.5675637404776</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="T36" t="n">
-        <v>220.893312866534</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="U36" t="n">
-        <v>117.2190619925905</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="V36" t="n">
-        <v>13.544811118647</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="W36" t="n">
-        <v>8.211000669216327</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="X36" t="n">
-        <v>8.211000669216327</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.211000669216327</v>
+        <v>203.2015317129293</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8.211000669216327</v>
+        <v>14.74524926272645</v>
       </c>
       <c r="C37" t="n">
-        <v>8.211000669216327</v>
+        <v>14.74524926272645</v>
       </c>
       <c r="D37" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="E37" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="F37" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="G37" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H37" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I37" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J37" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K37" t="n">
-        <v>8.211000669216327</v>
+        <v>78.58979207709835</v>
       </c>
       <c r="L37" t="n">
-        <v>35.52512567692931</v>
+        <v>180.2009253586504</v>
       </c>
       <c r="M37" t="n">
-        <v>117.5964049099616</v>
+        <v>281.8120586402025</v>
       </c>
       <c r="N37" t="n">
-        <v>219.2075381915137</v>
+        <v>379.0855913295885</v>
       </c>
       <c r="O37" t="n">
-        <v>320.8186714730657</v>
+        <v>403.4248679644878</v>
       </c>
       <c r="P37" t="n">
-        <v>410.5500334608163</v>
+        <v>403.4248679644878</v>
       </c>
       <c r="Q37" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R37" t="n">
-        <v>325.768001884557</v>
+        <v>325.7680018845571</v>
       </c>
       <c r="S37" t="n">
         <v>222.0937510106135</v>
       </c>
       <c r="T37" t="n">
-        <v>215.5595024171034</v>
+        <v>222.0937510106135</v>
       </c>
       <c r="U37" t="n">
-        <v>111.8852515431599</v>
+        <v>222.0937510106135</v>
       </c>
       <c r="V37" t="n">
-        <v>8.211000669216327</v>
+        <v>222.0937510106135</v>
       </c>
       <c r="W37" t="n">
-        <v>8.211000669216327</v>
+        <v>222.0937510106135</v>
       </c>
       <c r="X37" t="n">
-        <v>8.211000669216327</v>
+        <v>118.41950013667</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.211000669216327</v>
+        <v>14.74524926272645</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>42.4465355617364</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="C38" t="n">
-        <v>42.4465355617364</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="D38" t="n">
-        <v>42.4465355617364</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="E38" t="n">
-        <v>42.4465355617364</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="F38" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="G38" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H38" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I38" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J38" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K38" t="n">
-        <v>16.05657832410924</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L38" t="n">
-        <v>16.05657832410924</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M38" t="n">
-        <v>117.6677116056613</v>
+        <v>313.0444005138725</v>
       </c>
       <c r="N38" t="n">
-        <v>219.2788448872133</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="O38" t="n">
-        <v>320.8899781687654</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="P38" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q38" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R38" t="n">
-        <v>353.469288183567</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="S38" t="n">
-        <v>353.469288183567</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="T38" t="n">
-        <v>353.469288183567</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="U38" t="n">
-        <v>353.469288183567</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V38" t="n">
-        <v>249.7950373096234</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="W38" t="n">
-        <v>146.1207864356799</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="X38" t="n">
-        <v>146.1207864356799</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="Y38" t="n">
-        <v>42.4465355617364</v>
+        <v>203.2015317129293</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>8.211000669216327</v>
+        <v>153.2970806796922</v>
       </c>
       <c r="C39" t="n">
-        <v>8.211000669216327</v>
+        <v>73.14625353661853</v>
       </c>
       <c r="D39" t="n">
-        <v>8.211000669216327</v>
+        <v>73.14625353661853</v>
       </c>
       <c r="E39" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="F39" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="G39" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H39" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I39" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J39" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K39" t="n">
-        <v>8.211000669216327</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L39" t="n">
-        <v>109.8221339507684</v>
+        <v>137.933208384383</v>
       </c>
       <c r="M39" t="n">
-        <v>109.8221339507684</v>
+        <v>137.933208384383</v>
       </c>
       <c r="N39" t="n">
         <v>137.933208384383</v>
       </c>
       <c r="O39" t="n">
-        <v>239.544341665935</v>
+        <v>239.5443416659351</v>
       </c>
       <c r="P39" t="n">
         <v>341.1554749474871</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R39" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="S39" t="n">
-        <v>331.4348910495385</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="T39" t="n">
-        <v>319.2337532910469</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="U39" t="n">
-        <v>215.5595024171034</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="V39" t="n">
-        <v>215.5595024171034</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="W39" t="n">
-        <v>111.8852515431599</v>
+        <v>330.8844664356505</v>
       </c>
       <c r="X39" t="n">
-        <v>111.8852515431599</v>
+        <v>227.2102155617069</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.211000669216327</v>
+        <v>227.2102155617069</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8.211000669216327</v>
+        <v>261.8339388552344</v>
       </c>
       <c r="C40" t="n">
-        <v>8.211000669216327</v>
+        <v>187.1999580653808</v>
       </c>
       <c r="D40" t="n">
-        <v>8.211000669216327</v>
+        <v>131.3855207910984</v>
       </c>
       <c r="E40" t="n">
-        <v>8.211000669216327</v>
+        <v>77.77462934675856</v>
       </c>
       <c r="F40" t="n">
-        <v>8.211000669216327</v>
+        <v>77.77462934675856</v>
       </c>
       <c r="G40" t="n">
-        <v>8.211000669216327</v>
+        <v>77.77462934675856</v>
       </c>
       <c r="H40" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I40" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J40" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K40" t="n">
-        <v>78.58979207709835</v>
+        <v>39.46626375048388</v>
       </c>
       <c r="L40" t="n">
-        <v>180.2009253586504</v>
+        <v>66.78038875819685</v>
       </c>
       <c r="M40" t="n">
-        <v>245.6633786864015</v>
+        <v>168.3915220397489</v>
       </c>
       <c r="N40" t="n">
-        <v>289.3542293418378</v>
+        <v>212.0823726951852</v>
       </c>
       <c r="O40" t="n">
-        <v>313.6935059767371</v>
+        <v>313.6935059767372</v>
       </c>
       <c r="P40" t="n">
-        <v>403.4248679644877</v>
+        <v>403.4248679644878</v>
       </c>
       <c r="Q40" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R40" t="n">
-        <v>325.768001884557</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="S40" t="n">
-        <v>222.0937510106135</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="T40" t="n">
-        <v>118.41950013667</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="U40" t="n">
-        <v>111.8852515431599</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V40" t="n">
-        <v>111.8852515431599</v>
+        <v>261.8339388552344</v>
       </c>
       <c r="W40" t="n">
-        <v>8.211000669216327</v>
+        <v>261.8339388552344</v>
       </c>
       <c r="X40" t="n">
-        <v>8.211000669216327</v>
+        <v>261.8339388552344</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.211000669216327</v>
+        <v>261.8339388552344</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>203.2015317129293</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="C41" t="n">
-        <v>203.2015317129293</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="D41" t="n">
-        <v>203.2015317129293</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="E41" t="n">
-        <v>203.2015317129293</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="F41" t="n">
-        <v>203.2015317129293</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="G41" t="n">
-        <v>99.52728083898575</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="H41" t="n">
-        <v>99.52728083898575</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="I41" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J41" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K41" t="n">
         <v>109.8221339507684</v>
       </c>
       <c r="L41" t="n">
-        <v>109.8221339507684</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M41" t="n">
-        <v>207.3277668977123</v>
+        <v>219.2788448872134</v>
       </c>
       <c r="N41" t="n">
-        <v>308.9389001792643</v>
+        <v>320.8899781687654</v>
       </c>
       <c r="O41" t="n">
-        <v>410.5500334608163</v>
+        <v>320.8899781687654</v>
       </c>
       <c r="P41" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q41" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R41" t="n">
-        <v>410.5500334608163</v>
+        <v>308.9150310743728</v>
       </c>
       <c r="S41" t="n">
-        <v>410.5500334608163</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="T41" t="n">
-        <v>410.5500334608163</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="U41" t="n">
-        <v>410.5500334608163</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="V41" t="n">
-        <v>410.5500334608163</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="W41" t="n">
-        <v>410.5500334608163</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="X41" t="n">
-        <v>306.8757825868728</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="Y41" t="n">
-        <v>203.2015317129293</v>
+        <v>111.8852515431599</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8.211000669216327</v>
+        <v>175.5064421067215</v>
       </c>
       <c r="C42" t="n">
-        <v>8.211000669216327</v>
+        <v>71.83219123277792</v>
       </c>
       <c r="D42" t="n">
-        <v>8.211000669216327</v>
+        <v>71.83219123277792</v>
       </c>
       <c r="E42" t="n">
-        <v>8.211000669216327</v>
+        <v>71.83219123277792</v>
       </c>
       <c r="F42" t="n">
-        <v>8.211000669216327</v>
+        <v>71.83219123277792</v>
       </c>
       <c r="G42" t="n">
-        <v>8.211000669216327</v>
+        <v>71.83219123277792</v>
       </c>
       <c r="H42" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I42" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J42" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K42" t="n">
+        <v>8.211000669216329</v>
+      </c>
+      <c r="L42" t="n">
         <v>109.8221339507684</v>
       </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
+        <v>109.8221339507684</v>
+      </c>
+      <c r="N42" t="n">
         <v>137.933208384383</v>
       </c>
-      <c r="M42" t="n">
-        <v>239.544341665935</v>
-      </c>
-      <c r="N42" t="n">
-        <v>239.544341665935</v>
-      </c>
       <c r="O42" t="n">
-        <v>239.544341665935</v>
+        <v>239.5443416659351</v>
       </c>
       <c r="P42" t="n">
         <v>341.1554749474871</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R42" t="n">
-        <v>410.5500334608163</v>
+        <v>359.1284490425612</v>
       </c>
       <c r="S42" t="n">
-        <v>306.8757825868728</v>
+        <v>359.1284490425612</v>
       </c>
       <c r="T42" t="n">
-        <v>306.8757825868728</v>
+        <v>359.1284490425612</v>
       </c>
       <c r="U42" t="n">
-        <v>203.2015317129293</v>
+        <v>255.4541981686177</v>
       </c>
       <c r="V42" t="n">
-        <v>111.8852515431599</v>
+        <v>175.5064421067215</v>
       </c>
       <c r="W42" t="n">
-        <v>8.211000669216327</v>
+        <v>175.5064421067215</v>
       </c>
       <c r="X42" t="n">
-        <v>8.211000669216327</v>
+        <v>175.5064421067215</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.211000669216327</v>
+        <v>175.5064421067215</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8.211000669216327</v>
+        <v>307.1924025657452</v>
       </c>
       <c r="C43" t="n">
-        <v>8.211000669216327</v>
+        <v>307.1924025657452</v>
       </c>
       <c r="D43" t="n">
-        <v>8.211000669216327</v>
+        <v>307.1924025657452</v>
       </c>
       <c r="E43" t="n">
-        <v>8.211000669216327</v>
+        <v>209.0272540122111</v>
       </c>
       <c r="F43" t="n">
-        <v>8.211000669216327</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="G43" t="n">
-        <v>8.211000669216327</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="H43" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I43" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J43" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K43" t="n">
-        <v>34.92216468437712</v>
+        <v>34.92216468437709</v>
       </c>
       <c r="L43" t="n">
         <v>110.9942506148749</v>
       </c>
       <c r="M43" t="n">
-        <v>198.9402497298818</v>
+        <v>198.9402497298819</v>
       </c>
       <c r="N43" t="n">
-        <v>291.3890613081029</v>
+        <v>291.389061308103</v>
       </c>
       <c r="O43" t="n">
         <v>364.486298865787</v>
       </c>
       <c r="P43" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q43" t="n">
         <v>373.265611568772</v>
       </c>
       <c r="R43" t="n">
-        <v>269.5913606948285</v>
+        <v>373.265611568772</v>
       </c>
       <c r="S43" t="n">
-        <v>215.5595024171034</v>
+        <v>373.265611568772</v>
       </c>
       <c r="T43" t="n">
-        <v>111.8852515431599</v>
+        <v>307.1924025657452</v>
       </c>
       <c r="U43" t="n">
-        <v>111.8852515431599</v>
+        <v>307.1924025657452</v>
       </c>
       <c r="V43" t="n">
-        <v>8.211000669216327</v>
+        <v>307.1924025657452</v>
       </c>
       <c r="W43" t="n">
-        <v>8.211000669216327</v>
+        <v>307.1924025657452</v>
       </c>
       <c r="X43" t="n">
-        <v>8.211000669216327</v>
+        <v>307.1924025657452</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.211000669216327</v>
+        <v>307.1924025657452</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>111.8852515431599</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="C44" t="n">
-        <v>111.8852515431599</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="D44" t="n">
-        <v>111.8852515431599</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="E44" t="n">
         <v>111.8852515431599</v>
       </c>
       <c r="F44" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="G44" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H44" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I44" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J44" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K44" t="n">
         <v>109.8221339507684</v>
       </c>
       <c r="L44" t="n">
-        <v>117.6677116056613</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M44" t="n">
-        <v>117.6677116056613</v>
+        <v>313.0444005138725</v>
       </c>
       <c r="N44" t="n">
-        <v>219.2788448872133</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="O44" t="n">
-        <v>320.8899781687654</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="P44" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q44" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R44" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="S44" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="T44" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="U44" t="n">
-        <v>319.2337532910469</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V44" t="n">
-        <v>319.2337532910469</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="W44" t="n">
-        <v>319.2337532910469</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="X44" t="n">
-        <v>319.2337532910469</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="Y44" t="n">
-        <v>215.5595024171034</v>
+        <v>203.2015317129293</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>107.3974653016085</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="C45" t="n">
-        <v>107.3974653016085</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="D45" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="E45" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="F45" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="G45" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H45" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I45" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J45" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K45" t="n">
-        <v>36.32207510283092</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L45" t="n">
-        <v>137.933208384383</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M45" t="n">
-        <v>137.933208384383</v>
+        <v>313.0444005138725</v>
       </c>
       <c r="N45" t="n">
-        <v>239.544341665935</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="O45" t="n">
-        <v>341.1554749474871</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="P45" t="n">
-        <v>341.1554749474871</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R45" t="n">
-        <v>410.5500334608163</v>
+        <v>359.1284490425612</v>
       </c>
       <c r="S45" t="n">
-        <v>410.5500334608163</v>
+        <v>359.1284490425612</v>
       </c>
       <c r="T45" t="n">
-        <v>410.5500334608163</v>
+        <v>255.4541981686177</v>
       </c>
       <c r="U45" t="n">
-        <v>410.5500334608163</v>
+        <v>151.7799472946741</v>
       </c>
       <c r="V45" t="n">
-        <v>314.7459670494956</v>
+        <v>151.7799472946741</v>
       </c>
       <c r="W45" t="n">
-        <v>211.071716175552</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="X45" t="n">
-        <v>211.071716175552</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="Y45" t="n">
-        <v>211.071716175552</v>
+        <v>111.8852515431599</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>260.1137595262976</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="C46" t="n">
-        <v>260.1137595262976</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="D46" t="n">
-        <v>260.1137595262976</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="E46" t="n">
-        <v>260.1137595262976</v>
+        <v>105.3530031382676</v>
       </c>
       <c r="F46" t="n">
-        <v>260.1137595262976</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="G46" t="n">
-        <v>156.4395086523541</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H46" t="n">
-        <v>52.76525777841056</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I46" t="n">
-        <v>52.76525777841056</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J46" t="n">
-        <v>8.211000669216327</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K46" t="n">
         <v>34.92216468437712</v>
@@ -7824,34 +7824,34 @@
         <v>364.486298865787</v>
       </c>
       <c r="P46" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q46" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R46" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="S46" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="T46" t="n">
-        <v>410.5500334608163</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="U46" t="n">
-        <v>363.7880104002411</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="V46" t="n">
-        <v>363.7880104002411</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="W46" t="n">
-        <v>260.1137595262976</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="X46" t="n">
-        <v>260.1137595262976</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Y46" t="n">
-        <v>260.1137595262976</v>
+        <v>306.8757825868728</v>
       </c>
     </row>
   </sheetData>
@@ -9640,10 +9640,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>322.7273594101846</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>334.2569533002336</v>
       </c>
       <c r="M23" t="n">
         <v>332.9837415924768</v>
@@ -9652,10 +9652,10 @@
         <v>332.050571961795</v>
       </c>
       <c r="O23" t="n">
-        <v>238.02303733572</v>
+        <v>332.7357197868909</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9719,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>166.2364636547778</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>241.1918881450783</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>233.9792204485374</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>245.2337528096485</v>
       </c>
       <c r="P24" t="n">
-        <v>236.6119157795343</v>
+        <v>162.369432094749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9877,19 +9877,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>322.7273594101846</v>
       </c>
       <c r="L26" t="n">
         <v>338.4039233351913</v>
       </c>
       <c r="M26" t="n">
-        <v>238.271059141306</v>
+        <v>332.9837415924768</v>
       </c>
       <c r="N26" t="n">
-        <v>332.050571961795</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>332.7357197868908</v>
+        <v>238.02303733572</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L27" t="n">
         <v>241.1918881450783</v>
@@ -9965,7 +9965,7 @@
         <v>170.5290586024371</v>
       </c>
       <c r="N27" t="n">
-        <v>233.9792204485374</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>220.0898510449805</v>
+        <v>322.7273594101846</v>
       </c>
       <c r="L29" t="n">
         <v>338.4039233351913</v>
@@ -10126,7 +10126,7 @@
         <v>237.3378895106242</v>
       </c>
       <c r="O29" t="n">
-        <v>332.7357197868908</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>166.2364636547778</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>241.1918881450783</v>
       </c>
       <c r="M30" t="n">
-        <v>244.7715422872224</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>233.9792204485374</v>
       </c>
       <c r="O30" t="n">
-        <v>170.9912691248632</v>
+        <v>245.2337528096485</v>
       </c>
       <c r="P30" t="n">
-        <v>236.6119157795343</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10351,19 +10351,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>228.0146769590138</v>
       </c>
       <c r="L32" t="n">
-        <v>338.4039233351913</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
-        <v>238.271059141306</v>
+        <v>332.9837415924768</v>
       </c>
       <c r="N32" t="n">
         <v>332.050571961795</v>
       </c>
       <c r="O32" t="n">
-        <v>332.7357197868908</v>
+        <v>332.7357197868909</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10430,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>166.2364636547778</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>241.1918881450783</v>
       </c>
       <c r="M33" t="n">
-        <v>244.7715422872224</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>233.9792204485374</v>
+        <v>159.7367367637521</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>245.2337528096485</v>
       </c>
       <c r="P33" t="n">
-        <v>236.6119157795343</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>228.0146769590138</v>
+        <v>322.7273594101846</v>
       </c>
       <c r="L35" t="n">
         <v>338.4039233351913</v>
@@ -10597,10 +10597,10 @@
         <v>332.9837415924768</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>237.3378895106242</v>
       </c>
       <c r="O35" t="n">
-        <v>332.7357197868908</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L36" t="n">
-        <v>166.949404460293</v>
+        <v>241.1918881450783</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>244.7715422872224</v>
       </c>
       <c r="N36" t="n">
-        <v>233.9792204485374</v>
+        <v>229.8322504135796</v>
       </c>
       <c r="O36" t="n">
-        <v>245.2337528096485</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>236.6119157795343</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>228.0146769590138</v>
+        <v>322.7273594101846</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>338.4039233351913</v>
       </c>
       <c r="M38" t="n">
         <v>332.9837415924768</v>
       </c>
       <c r="N38" t="n">
-        <v>332.050571961795</v>
+        <v>327.9036019268373</v>
       </c>
       <c r="O38" t="n">
-        <v>332.7357197868908</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L39" t="n">
-        <v>241.1918881450783</v>
+        <v>166.949404460293</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>159.7367367637521</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>245.2337528096485</v>
@@ -11065,19 +11065,19 @@
         <v>322.7273594101846</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>338.4039233351913</v>
       </c>
       <c r="M41" t="n">
-        <v>328.8367715575191</v>
+        <v>238.271059141306</v>
       </c>
       <c r="N41" t="n">
         <v>332.050571961795</v>
       </c>
       <c r="O41" t="n">
-        <v>332.7357197868908</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>240.4789473395631</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>166.949404460293</v>
+        <v>241.1918881450783</v>
       </c>
       <c r="M42" t="n">
-        <v>244.7715422872224</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>159.7367367637521</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>245.2337528096485</v>
       </c>
       <c r="P42" t="n">
         <v>236.6119157795343</v>
@@ -11302,19 +11302,19 @@
         <v>322.7273594101846</v>
       </c>
       <c r="L44" t="n">
-        <v>243.6912408840205</v>
+        <v>338.4039233351913</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>332.9837415924768</v>
       </c>
       <c r="N44" t="n">
-        <v>332.050571961795</v>
+        <v>327.9036019268373</v>
       </c>
       <c r="O44" t="n">
-        <v>332.7357197868908</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>166.2364636547778</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L45" t="n">
         <v>241.1918881450783</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>244.7715422872224</v>
       </c>
       <c r="N45" t="n">
-        <v>233.9792204485374</v>
+        <v>229.8322504135796</v>
       </c>
       <c r="O45" t="n">
-        <v>245.2337528096485</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>259.5922536522333</v>
+        <v>291.430047371318</v>
       </c>
       <c r="C23" t="n">
         <v>273.9690974788449</v>
@@ -24214,19 +24214,19 @@
         <v>263.3792473285204</v>
       </c>
       <c r="E23" t="n">
-        <v>290.6265757800992</v>
+        <v>187.9890674148951</v>
       </c>
       <c r="F23" t="n">
-        <v>315.5722514495488</v>
+        <v>212.9347430843447</v>
       </c>
       <c r="G23" t="n">
-        <v>323.9989432229725</v>
+        <v>233.5958258549007</v>
       </c>
       <c r="H23" t="n">
         <v>248.1710078236045</v>
       </c>
       <c r="I23" t="n">
-        <v>119.1720952782433</v>
+        <v>16.53458691303919</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>58.56532364898706</v>
       </c>
       <c r="S23" t="n">
-        <v>15.07876692887864</v>
+        <v>117.7162752940827</v>
       </c>
       <c r="T23" t="n">
         <v>131.7920552719687</v>
       </c>
       <c r="U23" t="n">
-        <v>57.40435025046979</v>
+        <v>160.0418586156739</v>
       </c>
       <c r="V23" t="n">
-        <v>133.8109558127682</v>
+        <v>236.4484641779723</v>
       </c>
       <c r="W23" t="n">
         <v>257.9371744252504</v>
@@ -24290,10 +24290,10 @@
         <v>81.40470469615312</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>56.14127127247613</v>
       </c>
       <c r="E24" t="n">
-        <v>66.34128616323832</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>53.76541810122126</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.854039860480512</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>80.3793768116752</v>
       </c>
       <c r="T24" t="n">
-        <v>6.2234260374549</v>
+        <v>108.860934402659</v>
       </c>
       <c r="U24" t="n">
         <v>134.6375877888122</v>
       </c>
       <c r="V24" t="n">
-        <v>141.4967928572626</v>
+        <v>38.85928449205855</v>
       </c>
       <c r="W24" t="n">
-        <v>160.391188868757</v>
+        <v>117.7752785169047</v>
       </c>
       <c r="X24" t="n">
-        <v>30.541094254691</v>
+        <v>114.4691909113149</v>
       </c>
       <c r="Y24" t="n">
-        <v>114.3789014851417</v>
+        <v>11.74139311993764</v>
       </c>
     </row>
     <row r="25">
@@ -24369,13 +24369,13 @@
         <v>75.94302680646521</v>
       </c>
       <c r="D25" t="n">
-        <v>57.31167872604973</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>55.13016835440655</v>
       </c>
       <c r="F25" t="n">
-        <v>54.11725373076862</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>76.68718506629614</v>
@@ -24387,7 +24387,7 @@
         <v>64.14668063509566</v>
       </c>
       <c r="J25" t="n">
-        <v>2.055385824510154</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>85.98959708500686</v>
       </c>
       <c r="S25" t="n">
-        <v>30.07529537960555</v>
+        <v>132.7128037448096</v>
       </c>
       <c r="T25" t="n">
-        <v>34.00428677091479</v>
+        <v>136.6417951361189</v>
       </c>
       <c r="U25" t="n">
         <v>195.0152350643283</v>
       </c>
       <c r="V25" t="n">
-        <v>160.8338490316654</v>
+        <v>58.19634066646128</v>
       </c>
       <c r="W25" t="n">
-        <v>190.8056837613635</v>
+        <v>195.2192040444284</v>
       </c>
       <c r="X25" t="n">
-        <v>31.76835273167045</v>
+        <v>31.76835273167043</v>
       </c>
       <c r="Y25" t="n">
-        <v>127.2808590599322</v>
+        <v>47.72455160798485</v>
       </c>
     </row>
     <row r="26">
@@ -24454,13 +24454,13 @@
         <v>332.6799044936913</v>
       </c>
       <c r="F26" t="n">
-        <v>357.6255801631409</v>
+        <v>254.9880717979368</v>
       </c>
       <c r="G26" t="n">
-        <v>366.0522719365645</v>
+        <v>275.6491545684928</v>
       </c>
       <c r="H26" t="n">
-        <v>290.2243365371966</v>
+        <v>187.5868281719925</v>
       </c>
       <c r="I26" t="n">
         <v>161.2254239918354</v>
@@ -24493,10 +24493,10 @@
         <v>100.6186523625792</v>
       </c>
       <c r="S26" t="n">
-        <v>57.13209564247076</v>
+        <v>159.7696040076748</v>
       </c>
       <c r="T26" t="n">
-        <v>71.20787562035677</v>
+        <v>71.20787562035676</v>
       </c>
       <c r="U26" t="n">
         <v>202.095187329266</v>
@@ -24505,13 +24505,13 @@
         <v>278.5017928915644</v>
       </c>
       <c r="W26" t="n">
-        <v>209.5873857707708</v>
+        <v>299.9905031388425</v>
       </c>
       <c r="X26" t="n">
         <v>320.4806350998985</v>
       </c>
       <c r="Y26" t="n">
-        <v>234.349964712279</v>
+        <v>336.9874730774831</v>
       </c>
     </row>
     <row r="27">
@@ -24527,10 +24527,10 @@
         <v>123.4580334097452</v>
       </c>
       <c r="D27" t="n">
-        <v>98.19459998606825</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>108.3946148768304</v>
+        <v>5.757106511626347</v>
       </c>
       <c r="F27" t="n">
         <v>95.81874681481338</v>
@@ -24539,10 +24539,10 @@
         <v>88.09305158464014</v>
       </c>
       <c r="H27" t="n">
-        <v>62.98497865792596</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>40.14616727284457</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>50.90736857407263</v>
       </c>
       <c r="S27" t="n">
-        <v>19.79519716006324</v>
+        <v>122.4327055252673</v>
       </c>
       <c r="T27" t="n">
-        <v>150.9142631162511</v>
+        <v>56.56187493460993</v>
       </c>
       <c r="U27" t="n">
-        <v>74.05340813720024</v>
+        <v>176.6909165024043</v>
       </c>
       <c r="V27" t="n">
         <v>183.5501215708548</v>
       </c>
       <c r="W27" t="n">
-        <v>99.80700921714502</v>
+        <v>202.4445175823491</v>
       </c>
       <c r="X27" t="n">
         <v>156.522519624907</v>
       </c>
       <c r="Y27" t="n">
-        <v>116.9364814047347</v>
+        <v>156.4322301987339</v>
       </c>
     </row>
     <row r="28">
@@ -24615,7 +24615,7 @@
         <v>96.17058244436075</v>
       </c>
       <c r="G28" t="n">
-        <v>118.7405137798883</v>
+        <v>16.10300541468416</v>
       </c>
       <c r="H28" t="n">
         <v>112.9767069288691</v>
@@ -24624,7 +24624,7 @@
         <v>106.2000093486878</v>
       </c>
       <c r="J28" t="n">
-        <v>44.10871453810227</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>74.55138610365117</v>
+        <v>25.40541743339489</v>
       </c>
       <c r="S28" t="n">
-        <v>72.12862409319767</v>
+        <v>174.7661324584018</v>
       </c>
       <c r="T28" t="n">
-        <v>76.05761548450691</v>
+        <v>178.695123849711</v>
       </c>
       <c r="U28" t="n">
-        <v>134.4310554127163</v>
+        <v>237.0685637779204</v>
       </c>
       <c r="V28" t="n">
         <v>202.8871777452575</v>
@@ -24666,10 +24666,10 @@
         <v>237.2725327580205</v>
       </c>
       <c r="X28" t="n">
-        <v>176.4591898104667</v>
+        <v>73.82168144526256</v>
       </c>
       <c r="Y28" t="n">
-        <v>169.3341877735243</v>
+        <v>159.9513626166787</v>
       </c>
     </row>
     <row r="29">
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>100.6186523625792</v>
       </c>
       <c r="S29" t="n">
         <v>159.7696040076748</v>
@@ -24742,13 +24742,13 @@
         <v>278.5017928915644</v>
       </c>
       <c r="W29" t="n">
-        <v>207.5685297681459</v>
+        <v>299.9905031388425</v>
       </c>
       <c r="X29" t="n">
-        <v>320.4806350998985</v>
+        <v>230.0775177318267</v>
       </c>
       <c r="Y29" t="n">
-        <v>336.9874730774831</v>
+        <v>234.349964712279</v>
       </c>
     </row>
     <row r="30">
@@ -24773,10 +24773,10 @@
         <v>95.81874681481338</v>
       </c>
       <c r="G30" t="n">
-        <v>88.09305158464014</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>62.98497865792596</v>
+        <v>60.67491287449437</v>
       </c>
       <c r="I30" t="n">
         <v>40.14616727284457</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>50.90736857407263</v>
       </c>
       <c r="S30" t="n">
-        <v>19.79519716006324</v>
+        <v>122.4327055252673</v>
       </c>
       <c r="T30" t="n">
-        <v>111.418514322252</v>
+        <v>150.9142631162511</v>
       </c>
       <c r="U30" t="n">
-        <v>74.05340813720024</v>
+        <v>74.05340813720022</v>
       </c>
       <c r="V30" t="n">
-        <v>183.5501215708548</v>
+        <v>80.91261320565067</v>
       </c>
       <c r="W30" t="n">
-        <v>202.4445175823491</v>
+        <v>99.80700921714501</v>
       </c>
       <c r="X30" t="n">
-        <v>53.88501125970289</v>
+        <v>156.522519624907</v>
       </c>
       <c r="Y30" t="n">
         <v>156.4322301987339</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>130.5815146033668</v>
+        <v>27.9440062381627</v>
       </c>
       <c r="C31" t="n">
         <v>117.9963555200573</v>
@@ -24882,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>36.91157767312388</v>
       </c>
       <c r="R31" t="n">
-        <v>25.4054174333949</v>
+        <v>128.042925798599</v>
       </c>
       <c r="S31" t="n">
-        <v>72.12862409319767</v>
+        <v>174.7661324584018</v>
       </c>
       <c r="T31" t="n">
-        <v>76.05761548450691</v>
+        <v>178.695123849711</v>
       </c>
       <c r="U31" t="n">
-        <v>183.5770240829725</v>
+        <v>134.4310554127163</v>
       </c>
       <c r="V31" t="n">
         <v>202.8871777452575</v>
       </c>
       <c r="W31" t="n">
-        <v>237.2725327580205</v>
+        <v>134.6350243928164</v>
       </c>
       <c r="X31" t="n">
         <v>176.4591898104667</v>
       </c>
       <c r="Y31" t="n">
-        <v>169.3341877735243</v>
+        <v>78.93107040545256</v>
       </c>
     </row>
     <row r="32">
@@ -24931,7 +24931,7 @@
         <v>313.5168656250387</v>
       </c>
       <c r="G32" t="n">
-        <v>219.3060490332582</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H32" t="n">
         <v>246.1156219990944</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.02338110436848</v>
+        <v>81.76770992597773</v>
       </c>
       <c r="T32" t="n">
-        <v>129.7366694474586</v>
+        <v>27.09916108225448</v>
       </c>
       <c r="U32" t="n">
         <v>157.9864727911637</v>
       </c>
       <c r="V32" t="n">
-        <v>234.3930783534621</v>
+        <v>131.755569988258</v>
       </c>
       <c r="W32" t="n">
-        <v>153.2442802355362</v>
+        <v>153.2442802355361</v>
       </c>
       <c r="X32" t="n">
         <v>276.3719205617963</v>
       </c>
       <c r="Y32" t="n">
-        <v>258.9855789957859</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="33">
@@ -24995,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>73.17400353319456</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>74.06884652670659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>54.08588544796598</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>64.28590033872817</v>
       </c>
       <c r="F33" t="n">
-        <v>51.7100322767111</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>43.98433704653786</v>
+        <v>13.42409711354291</v>
       </c>
       <c r="H33" t="n">
         <v>18.87626411982369</v>
@@ -25046,16 +25046,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T33" t="n">
-        <v>4.168040212944746</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U33" t="n">
         <v>132.582201964302</v>
       </c>
       <c r="V33" t="n">
-        <v>36.80389866754841</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W33" t="n">
         <v>158.3358030442468</v>
@@ -25064,7 +25064,7 @@
         <v>112.4138050868047</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.686007295427501</v>
+        <v>9.686007295427487</v>
       </c>
     </row>
     <row r="34">
@@ -25089,7 +25089,7 @@
         <v>52.06186790625847</v>
       </c>
       <c r="G34" t="n">
-        <v>74.63179924178598</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>68.8679923907668</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>83.93421126049671</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>28.0199095550954</v>
+        <v>28.01990955509538</v>
       </c>
       <c r="T34" t="n">
-        <v>31.94890094640463</v>
+        <v>31.94890094640462</v>
       </c>
       <c r="U34" t="n">
-        <v>102.5567318717464</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V34" t="n">
         <v>158.7784632071552</v>
@@ -25140,7 +25140,7 @@
         <v>193.1638182199182</v>
       </c>
       <c r="X34" t="n">
-        <v>29.71296690716029</v>
+        <v>97.87586004137125</v>
       </c>
       <c r="Y34" t="n">
         <v>125.225473235422</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>198.9715441787361</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C35" t="n">
         <v>271.9137116543347</v>
@@ -25165,7 +25165,7 @@
         <v>288.571189955589</v>
       </c>
       <c r="F35" t="n">
-        <v>210.8793572598346</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G35" t="n">
         <v>321.9435573984623</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>56.50993782447691</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>115.6608894695726</v>
+        <v>13.02338110436847</v>
       </c>
       <c r="T35" t="n">
-        <v>129.7366694474586</v>
+        <v>27.09916108225448</v>
       </c>
       <c r="U35" t="n">
-        <v>55.34896442595964</v>
+        <v>55.34896442595962</v>
       </c>
       <c r="V35" t="n">
-        <v>234.3930783534621</v>
+        <v>200.4998988098673</v>
       </c>
       <c r="W35" t="n">
         <v>255.8817886007402</v>
@@ -25222,7 +25222,7 @@
         <v>276.3719205617963</v>
       </c>
       <c r="Y35" t="n">
-        <v>190.2412501741767</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="36">
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>73.17400353319456</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>79.34931887164296</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>54.08588544796598</v>
+        <v>13.5685821195277</v>
       </c>
       <c r="E36" t="n">
         <v>64.28590033872817</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T36" t="n">
-        <v>4.168040212944746</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U36" t="n">
-        <v>29.94469359909796</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V36" t="n">
-        <v>36.80389866754841</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W36" t="n">
-        <v>153.0553306993105</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X36" t="n">
-        <v>112.4138050868047</v>
+        <v>9.776296721600602</v>
       </c>
       <c r="Y36" t="n">
-        <v>112.3235156606316</v>
+        <v>9.686007295427487</v>
       </c>
     </row>
     <row r="37">
@@ -25317,7 +25317,7 @@
         <v>73.88764098195506</v>
       </c>
       <c r="D37" t="n">
-        <v>55.25629290153958</v>
+        <v>48.78738679396456</v>
       </c>
       <c r="E37" t="n">
         <v>53.0747825298964</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>28.0199095550954</v>
+        <v>28.01990955509538</v>
       </c>
       <c r="T37" t="n">
-        <v>128.1175032040337</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U37" t="n">
-        <v>90.32234087461403</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V37" t="n">
-        <v>56.14095484195114</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W37" t="n">
         <v>193.1638182199182</v>
       </c>
       <c r="X37" t="n">
-        <v>132.3504752723644</v>
+        <v>29.71296690716028</v>
       </c>
       <c r="Y37" t="n">
-        <v>125.225473235422</v>
+        <v>22.58796487021792</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>289.3746615468078</v>
+        <v>198.9715441787361</v>
       </c>
       <c r="C38" t="n">
-        <v>271.9137116543347</v>
+        <v>169.2762032891306</v>
       </c>
       <c r="D38" t="n">
         <v>261.3238615040102</v>
@@ -25402,7 +25402,7 @@
         <v>288.571189955589</v>
       </c>
       <c r="F38" t="n">
-        <v>279.6236860814438</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G38" t="n">
         <v>321.9435573984623</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S38" t="n">
         <v>115.6608894695726</v>
@@ -25447,13 +25447,13 @@
         <v>129.7366694474586</v>
       </c>
       <c r="U38" t="n">
-        <v>157.9864727911637</v>
+        <v>55.34896442595962</v>
       </c>
       <c r="V38" t="n">
-        <v>131.7555699882581</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W38" t="n">
-        <v>153.2442802355362</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X38" t="n">
         <v>276.3719205617963</v>
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>73.17400353319456</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>79.34931887164296</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>54.08588544796598</v>
       </c>
       <c r="E39" t="n">
-        <v>64.28590033872817</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>51.7100322767111</v>
@@ -25520,25 +25520,25 @@
         <v>6.798654035970358</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T39" t="n">
-        <v>94.72642219724214</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U39" t="n">
-        <v>29.94469359909796</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V39" t="n">
         <v>139.4414070327525</v>
       </c>
       <c r="W39" t="n">
-        <v>55.69829467904275</v>
+        <v>79.4668916893326</v>
       </c>
       <c r="X39" t="n">
-        <v>112.4138050868047</v>
+        <v>9.776296721600602</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.686007295427501</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="40">
@@ -25551,13 +25551,13 @@
         <v>86.47280006526452</v>
       </c>
       <c r="C40" t="n">
-        <v>73.88764098195506</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>55.25629290153958</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>53.0747825298964</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>52.06186790625847</v>
@@ -25566,7 +25566,7 @@
         <v>74.63179924178598</v>
       </c>
       <c r="H40" t="n">
-        <v>68.8679923907668</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>62.09129481058551</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S40" t="n">
-        <v>28.0199095550954</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T40" t="n">
-        <v>31.94890094640463</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U40" t="n">
-        <v>186.4909431322431</v>
+        <v>90.32234087461401</v>
       </c>
       <c r="V40" t="n">
-        <v>158.7784632071552</v>
+        <v>114.1870379128331</v>
       </c>
       <c r="W40" t="n">
-        <v>90.52630985471414</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X40" t="n">
         <v>132.3504752723644</v>
@@ -25630,7 +25630,7 @@
         <v>333.4833760849101</v>
       </c>
       <c r="C41" t="n">
-        <v>316.0224261924371</v>
+        <v>316.022426192437</v>
       </c>
       <c r="D41" t="n">
         <v>305.4325760421125</v>
@@ -25642,13 +25642,13 @@
         <v>357.625580163141</v>
       </c>
       <c r="G41" t="n">
-        <v>263.4147635713605</v>
+        <v>366.0522719365646</v>
       </c>
       <c r="H41" t="n">
         <v>290.2243365371967</v>
       </c>
       <c r="I41" t="n">
-        <v>70.82230662376372</v>
+        <v>58.58791562663131</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>100.6186523625792</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>159.7696040076748</v>
+        <v>67.34763063697815</v>
       </c>
       <c r="T41" t="n">
-        <v>173.8453839855609</v>
+        <v>71.20787562035676</v>
       </c>
       <c r="U41" t="n">
         <v>202.095187329266</v>
@@ -25693,10 +25693,10 @@
         <v>299.9905031388425</v>
       </c>
       <c r="X41" t="n">
-        <v>217.8431267346945</v>
+        <v>320.4806350998986</v>
       </c>
       <c r="Y41" t="n">
-        <v>234.349964712279</v>
+        <v>336.9874730774831</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>117.2827180712969</v>
+        <v>117.2827180712968</v>
       </c>
       <c r="C42" t="n">
-        <v>123.4580334097453</v>
+        <v>20.82052504454114</v>
       </c>
       <c r="D42" t="n">
-        <v>98.19459998606827</v>
+        <v>98.19459998606825</v>
       </c>
       <c r="E42" t="n">
-        <v>108.3946148768305</v>
+        <v>108.3946148768304</v>
       </c>
       <c r="F42" t="n">
-        <v>95.81874681481339</v>
+        <v>95.81874681481338</v>
       </c>
       <c r="G42" t="n">
-        <v>88.09305158464015</v>
+        <v>88.09305158464014</v>
       </c>
       <c r="H42" t="n">
-        <v>62.98497865792598</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>40.14616727284459</v>
+        <v>40.14616727284458</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.90736857407265</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>19.79519716006325</v>
+        <v>122.4327055252673</v>
       </c>
       <c r="T42" t="n">
         <v>150.9142631162511</v>
       </c>
       <c r="U42" t="n">
-        <v>74.05340813720024</v>
+        <v>74.05340813720022</v>
       </c>
       <c r="V42" t="n">
-        <v>93.14700420278308</v>
+        <v>104.4018430695775</v>
       </c>
       <c r="W42" t="n">
-        <v>99.80700921714505</v>
+        <v>202.4445175823491</v>
       </c>
       <c r="X42" t="n">
         <v>156.522519624907</v>
@@ -25791,25 +25791,25 @@
         <v>117.9963555200573</v>
       </c>
       <c r="D43" t="n">
-        <v>99.36500743964187</v>
+        <v>99.36500743964186</v>
       </c>
       <c r="E43" t="n">
-        <v>97.18349706799869</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>96.17058244436076</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>118.7405137798883</v>
       </c>
       <c r="H43" t="n">
-        <v>112.9767069288691</v>
+        <v>10.33919856366498</v>
       </c>
       <c r="I43" t="n">
         <v>106.2000093486878</v>
       </c>
       <c r="J43" t="n">
-        <v>44.10871453810229</v>
+        <v>44.10871453810228</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>25.40541743339493</v>
+        <v>128.042925798599</v>
       </c>
       <c r="S43" t="n">
-        <v>121.2745927634539</v>
+        <v>174.7661324584018</v>
       </c>
       <c r="T43" t="n">
-        <v>76.05761548450694</v>
+        <v>113.2826469367144</v>
       </c>
       <c r="U43" t="n">
         <v>237.0685637779204</v>
       </c>
       <c r="V43" t="n">
-        <v>100.2496693800534</v>
+        <v>202.8871777452575</v>
       </c>
       <c r="W43" t="n">
         <v>237.2725327580205</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>230.845867719706</v>
+        <v>333.4833760849101</v>
       </c>
       <c r="C44" t="n">
-        <v>316.0224261924371</v>
+        <v>316.022426192437</v>
       </c>
       <c r="D44" t="n">
         <v>305.4325760421125</v>
       </c>
       <c r="E44" t="n">
-        <v>332.6799044936913</v>
+        <v>242.2767871256196</v>
       </c>
       <c r="F44" t="n">
-        <v>357.625580163141</v>
+        <v>254.9880717979369</v>
       </c>
       <c r="G44" t="n">
-        <v>263.4147635713605</v>
+        <v>366.0522719365646</v>
       </c>
       <c r="H44" t="n">
         <v>290.2243365371967</v>
@@ -25921,19 +25921,19 @@
         <v>173.8453839855609</v>
       </c>
       <c r="U44" t="n">
-        <v>111.6920699611943</v>
+        <v>99.4576789640619</v>
       </c>
       <c r="V44" t="n">
         <v>278.5017928915644</v>
       </c>
       <c r="W44" t="n">
-        <v>299.9905031388425</v>
+        <v>197.3529947736384</v>
       </c>
       <c r="X44" t="n">
         <v>320.4806350998986</v>
       </c>
       <c r="Y44" t="n">
-        <v>234.349964712279</v>
+        <v>336.9874730774831</v>
       </c>
     </row>
     <row r="45">
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>14.64520970609276</v>
+        <v>117.2827180712968</v>
       </c>
       <c r="C45" t="n">
-        <v>123.4580334097452</v>
+        <v>20.82052504454114</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>98.19459998606825</v>
       </c>
       <c r="E45" t="n">
         <v>108.3946148768304</v>
@@ -25961,10 +25961,10 @@
         <v>88.09305158464014</v>
       </c>
       <c r="H45" t="n">
-        <v>62.98497865792597</v>
+        <v>62.98497865792596</v>
       </c>
       <c r="I45" t="n">
-        <v>40.14616727284459</v>
+        <v>40.14616727284458</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,22 +25991,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.90736857407264</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>122.4327055252673</v>
       </c>
       <c r="T45" t="n">
-        <v>150.9142631162511</v>
+        <v>48.27675475104701</v>
       </c>
       <c r="U45" t="n">
-        <v>176.6909165024043</v>
+        <v>74.05340813720022</v>
       </c>
       <c r="V45" t="n">
-        <v>88.70409582364721</v>
+        <v>183.5501215708548</v>
       </c>
       <c r="W45" t="n">
-        <v>99.80700921714502</v>
+        <v>162.94876878835</v>
       </c>
       <c r="X45" t="n">
         <v>156.522519624907</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.5815146033668</v>
+        <v>27.9440062381627</v>
       </c>
       <c r="C46" t="n">
         <v>117.9963555200573</v>
@@ -26031,22 +26031,22 @@
         <v>99.36500743964186</v>
       </c>
       <c r="E46" t="n">
-        <v>97.18349706799867</v>
+        <v>0.3134537790836021</v>
       </c>
       <c r="F46" t="n">
-        <v>96.17058244436075</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>16.10300541468418</v>
+        <v>118.7405137798883</v>
       </c>
       <c r="H46" t="n">
-        <v>10.33919856366499</v>
+        <v>112.9767069288691</v>
       </c>
       <c r="I46" t="n">
         <v>106.2000093486878</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>44.10871453810228</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>178.695123849711</v>
       </c>
       <c r="U46" t="n">
-        <v>190.7741609479509</v>
+        <v>237.0685637779204</v>
       </c>
       <c r="V46" t="n">
         <v>202.8871777452575</v>
       </c>
       <c r="W46" t="n">
-        <v>134.6350243928164</v>
+        <v>237.2725327580205</v>
       </c>
       <c r="X46" t="n">
         <v>176.4591898104667</v>
       </c>
       <c r="Y46" t="n">
-        <v>169.3341877735243</v>
+        <v>66.69667940832019</v>
       </c>
     </row>
   </sheetData>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>461248.1383729276</v>
+        <v>461248.1383729277</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>550340.4057174528</v>
+        <v>550340.4057174525</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>550340.4057174525</v>
+        <v>550340.4057174528</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>461248.1383729275</v>
+        <v>461248.1383729276</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>737348.7048453346</v>
+        <v>737348.7048453348</v>
       </c>
       <c r="C2" t="n">
         <v>737348.7048453345</v>
       </c>
       <c r="D2" t="n">
-        <v>737348.7048453346</v>
+        <v>737348.7048453345</v>
       </c>
       <c r="E2" t="n">
-        <v>380522.6848068607</v>
+        <v>380522.6848068609</v>
       </c>
       <c r="F2" t="n">
-        <v>380522.6848068607</v>
+        <v>380522.6848068609</v>
       </c>
       <c r="G2" t="n">
         <v>391370.9867362364</v>
       </c>
       <c r="H2" t="n">
-        <v>391370.9867362364</v>
+        <v>391370.9867362367</v>
       </c>
       <c r="I2" t="n">
-        <v>443709.6621559648</v>
+        <v>443709.6621559646</v>
       </c>
       <c r="J2" t="n">
-        <v>353663.879171134</v>
+        <v>353663.8791711339</v>
       </c>
       <c r="K2" t="n">
-        <v>353663.879171134</v>
+        <v>353663.8791711339</v>
       </c>
       <c r="L2" t="n">
-        <v>447996.8681241609</v>
+        <v>447996.8681241607</v>
       </c>
       <c r="M2" t="n">
+        <v>447996.868124161</v>
+      </c>
+      <c r="N2" t="n">
         <v>447996.8681241611</v>
       </c>
-      <c r="N2" t="n">
-        <v>447996.868124161</v>
-      </c>
       <c r="O2" t="n">
-        <v>353663.879171134</v>
+        <v>353663.8791711339</v>
       </c>
       <c r="P2" t="n">
         <v>353663.8791711339</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>68929.63460135552</v>
+        <v>68929.6346013555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4113.400832374583</v>
+        <v>4113.400832374589</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>27293.46886198343</v>
       </c>
       <c r="J3" t="n">
-        <v>35286.97163048184</v>
+        <v>35286.97163048182</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26453,7 +26453,7 @@
         <v>259224.2061476247</v>
       </c>
       <c r="N4" t="n">
-        <v>259224.2061476247</v>
+        <v>259224.2061476248</v>
       </c>
       <c r="O4" t="n">
         <v>199399.5792205975</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>256696.4845729418</v>
+        <v>256652.3487942608</v>
       </c>
       <c r="C6" t="n">
-        <v>256696.4845729416</v>
+        <v>256652.3487942605</v>
       </c>
       <c r="D6" t="n">
-        <v>256696.4845729418</v>
+        <v>256652.3487942605</v>
       </c>
       <c r="E6" t="n">
-        <v>83618.81083453356</v>
+        <v>73662.84116589512</v>
       </c>
       <c r="F6" t="n">
-        <v>152548.4454358891</v>
+        <v>142592.4757672506</v>
       </c>
       <c r="G6" t="n">
-        <v>151971.2473678798</v>
+        <v>142316.6194195015</v>
       </c>
       <c r="H6" t="n">
-        <v>156084.6482002544</v>
+        <v>146430.0202518763</v>
       </c>
       <c r="I6" t="n">
-        <v>145994.6924140998</v>
+        <v>137793.9165607137</v>
       </c>
       <c r="J6" t="n">
-        <v>108596.5304207254</v>
+        <v>97894.48281776092</v>
       </c>
       <c r="K6" t="n">
-        <v>143883.5020512073</v>
+        <v>133181.4544482427</v>
       </c>
       <c r="L6" t="n">
-        <v>135283.3160918468</v>
+        <v>127201.6292931329</v>
       </c>
       <c r="M6" t="n">
-        <v>174683.6885547034</v>
+        <v>166602.0017559896</v>
       </c>
       <c r="N6" t="n">
-        <v>174683.6885547033</v>
+        <v>166602.0017559897</v>
       </c>
       <c r="O6" t="n">
-        <v>143883.5020512073</v>
+        <v>133181.4544482427</v>
       </c>
       <c r="P6" t="n">
-        <v>143883.5020512072</v>
+        <v>133181.4544482427</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>93.35918011667277</v>
       </c>
       <c r="O2" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="P2" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
     </row>
     <row r="3">
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>86.1620432516944</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.141751040468229</v>
+        <v>5.141751040468236</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.10871453810229</v>
+        <v>44.10871453810228</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.1620432516944</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.141751040468229</v>
+        <v>5.141751040468236</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.10871453810229</v>
+        <v>44.10871453810228</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -29225,19 +29225,19 @@
         <v>91.30379429216262</v>
       </c>
       <c r="L25" t="n">
-        <v>75.04748310488795</v>
+        <v>29.70107339546514</v>
       </c>
       <c r="M25" t="n">
-        <v>63.0536314033635</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>58.23469289543416</v>
+        <v>78.05238045116442</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>91.30379429216262</v>
       </c>
       <c r="Q25" t="n">
         <v>91.30379429216262</v>
@@ -29696,7 +29696,7 @@
         <v>49.25046557857051</v>
       </c>
       <c r="K31" t="n">
-        <v>49.25046557857047</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="L31" t="n">
         <v>49.25046557857051</v>
@@ -29933,25 +29933,25 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="L34" t="n">
-        <v>75.04748310488795</v>
+        <v>38.53366496973563</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>63.05363140336351</v>
       </c>
       <c r="N34" t="n">
-        <v>58.50533598597549</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>46.32130243800388</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="R34" t="n">
         <v>93.35918011667277</v>
@@ -30170,25 +30170,25 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>75.04748310488796</v>
       </c>
       <c r="M37" t="n">
-        <v>43.3164050917274</v>
+        <v>63.05363140336351</v>
       </c>
       <c r="N37" t="n">
-        <v>58.50533598597549</v>
+        <v>54.12392124641389</v>
       </c>
       <c r="O37" t="n">
-        <v>78.05238045116441</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q37" t="n">
         <v>93.35918011667277</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>93.35918011667277</v>
@@ -30407,19 +30407,19 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>93.35918011667277</v>
+        <v>53.84046463524401</v>
       </c>
       <c r="L40" t="n">
-        <v>75.04748310488795</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>26.53981326821105</v>
+        <v>63.05363140336351</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>78.05238045116442</v>
       </c>
       <c r="P40" t="n">
         <v>93.35918011667277</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="C41" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="D41" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="E41" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="F41" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="G41" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="H41" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="I41" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="S41" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="T41" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="U41" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="V41" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="W41" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="X41" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="Y41" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="C42" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="D42" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="E42" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="F42" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="G42" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="H42" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="I42" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="S42" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="T42" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="U42" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="V42" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="W42" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="X42" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="Y42" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="C43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="D43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="E43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="F43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="G43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="H43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="I43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="J43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="K43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="L43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="M43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="N43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="O43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="P43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="R43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="S43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="T43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="U43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="V43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="W43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="X43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="Y43" t="n">
-        <v>49.25046557857048</v>
+        <v>49.2504655785705</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="C44" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="D44" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="E44" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="F44" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="G44" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="H44" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="I44" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="S44" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="T44" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="U44" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="V44" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="W44" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="X44" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="Y44" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="C45" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="D45" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="E45" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="F45" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="G45" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="H45" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="I45" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="S45" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="T45" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="U45" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="V45" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="W45" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="X45" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="Y45" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="C46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="D46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="E46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="F46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="G46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="H46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="I46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="J46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="K46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="L46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="M46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="N46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="O46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="P46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="R46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="S46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="T46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="U46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="V46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="W46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="X46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="Y46" t="n">
-        <v>49.25046557857049</v>
+        <v>49.2504655785705</v>
       </c>
     </row>
   </sheetData>
@@ -36360,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>98.49053833024638</v>
       </c>
       <c r="M23" t="n">
         <v>102.6375083652041</v>
@@ -36372,10 +36372,10 @@
         <v>102.6375083652041</v>
       </c>
       <c r="O23" t="n">
-        <v>7.924825914033239</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P23" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>28.39502468041879</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="P24" t="n">
-        <v>102.6375083652041</v>
+        <v>28.39502468041878</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36521,19 +36521,19 @@
         <v>69.03430246627977</v>
       </c>
       <c r="L25" t="n">
-        <v>102.6375083652041</v>
+        <v>57.29109865578128</v>
       </c>
       <c r="M25" t="n">
-        <v>102.6375083652041</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N25" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="O25" t="n">
-        <v>82.81982080947384</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>88.58235355705611</v>
       </c>
       <c r="Q25" t="n">
         <v>5.141751040468236</v>
@@ -36597,19 +36597,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L26" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="M26" t="n">
+        <v>102.6375083652041</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>7.924825914033239</v>
-      </c>
-      <c r="N26" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="O26" t="n">
-        <v>102.6375083652041</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L27" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="M27" t="n">
-        <v>28.39502468041878</v>
+        <v>28.39502468041881</v>
       </c>
       <c r="N27" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L29" t="n">
         <v>102.6375083652041</v>
@@ -36846,7 +36846,7 @@
         <v>7.924825914033239</v>
       </c>
       <c r="O29" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>28.39502468041882</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M30" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="O30" t="n">
-        <v>28.39502468041878</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P30" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>26.98097375268762</v>
+        <v>26.98097375268765</v>
       </c>
       <c r="L31" t="n">
         <v>76.84049083888664</v>
@@ -37071,13 +37071,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>7.924825914033272</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="M32" t="n">
-        <v>7.924825914033239</v>
       </c>
       <c r="N32" t="n">
         <v>102.6375083652041</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>28.39502468041879</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>28.39502468041881</v>
+      </c>
+      <c r="O33" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="N33" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
       <c r="P33" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37229,25 +37229,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>71.08968829078992</v>
       </c>
       <c r="L34" t="n">
+        <v>66.12369023005176</v>
+      </c>
+      <c r="M34" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="M34" t="n">
-        <v>39.58387696184059</v>
-      </c>
       <c r="N34" t="n">
-        <v>102.6375083652041</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O34" t="n">
-        <v>70.90643035204356</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P34" t="n">
         <v>90.63773938156626</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>7.19713686497839</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>7.924825914033245</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L35" t="n">
         <v>102.6375083652041</v>
@@ -37317,10 +37317,10 @@
         <v>102.6375083652041</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>7.924825914033239</v>
       </c>
       <c r="O35" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L36" t="n">
-        <v>28.39502468041879</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N36" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024634</v>
       </c>
       <c r="O36" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>71.08968829078992</v>
       </c>
       <c r="L37" t="n">
-        <v>27.59002526031614</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M37" t="n">
-        <v>82.90028205356799</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N37" t="n">
-        <v>102.6375083652041</v>
+        <v>98.25609362564248</v>
       </c>
       <c r="O37" t="n">
-        <v>102.6375083652041</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P37" t="n">
-        <v>90.63773938156626</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>7.19713686497839</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>7.924825914033245</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M38" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="N38" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024634</v>
       </c>
       <c r="O38" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L39" t="n">
-        <v>102.6375083652041</v>
+        <v>28.39502468041882</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>28.39502468041878</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>102.6375083652041</v>
@@ -37703,19 +37703,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>71.08968829078992</v>
+        <v>31.57097280936116</v>
       </c>
       <c r="L40" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="M40" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="M40" t="n">
-        <v>66.12369023005164</v>
       </c>
       <c r="N40" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="O40" t="n">
-        <v>24.58512791403967</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P40" t="n">
         <v>90.63773938156626</v>
@@ -37785,19 +37785,19 @@
         <v>102.6375083652041</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M41" t="n">
-        <v>98.49053833024634</v>
+        <v>7.924825914033268</v>
       </c>
       <c r="N41" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="O41" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="L42" t="n">
-        <v>28.39502468041878</v>
-      </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>28.39502468041882</v>
+      </c>
+      <c r="O42" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>102.6375083652041</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>26.98097375268763</v>
+        <v>26.98097375268765</v>
       </c>
       <c r="L43" t="n">
-        <v>76.84049083888662</v>
+        <v>76.84049083888664</v>
       </c>
       <c r="M43" t="n">
-        <v>88.83434254041107</v>
+        <v>88.83434254041109</v>
       </c>
       <c r="N43" t="n">
-        <v>93.38263795779908</v>
+        <v>93.38263795779909</v>
       </c>
       <c r="O43" t="n">
-        <v>73.83559349261016</v>
+        <v>73.83559349261017</v>
       </c>
       <c r="P43" t="n">
-        <v>46.52902484346397</v>
+        <v>46.52902484346399</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>102.6375083652041</v>
       </c>
       <c r="L44" t="n">
-        <v>7.924825914033239</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N44" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024634</v>
       </c>
       <c r="O44" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>28.39502468041879</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L45" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N45" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024634</v>
       </c>
       <c r="O45" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>26.98097375268764</v>
+        <v>26.98097375268765</v>
       </c>
       <c r="L46" t="n">
         <v>76.84049083888664</v>
@@ -38192,7 +38192,7 @@
         <v>73.83559349261017</v>
       </c>
       <c r="P46" t="n">
-        <v>46.52902484346398</v>
+        <v>46.52902484346399</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
